--- a/data/trans_camb/BARTHEL_R3-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R3-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>15.58706022861508</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.073842539474237</v>
+        <v>1.073842539474235</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>44.57922040319153</v>
@@ -664,7 +664,7 @@
         <v>27.42078712966241</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>7.210277940362462</v>
+        <v>7.210277940362466</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.210971957441076</v>
+        <v>-3.696599946563507</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.381748450162294</v>
+        <v>1.414619703678202</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.43236676606663</v>
+        <v>-13.47954124172487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27.03537318797231</v>
+        <v>24.45202018175401</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.64966484671559</v>
+        <v>18.30305119236285</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.3817600877038618</v>
+        <v>-0.6353710594041634</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.08197124049421</v>
+        <v>16.03425061523362</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>14.57355563242798</v>
+        <v>14.81254514486561</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.424929140791474</v>
+        <v>-1.737023327608211</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>27.18306400459522</v>
+        <v>28.26925809888207</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>29.86147630590182</v>
+        <v>32.06551492831655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.98316305830389</v>
+        <v>10.88187254948507</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60.14920383323731</v>
+        <v>60.62694302130578</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>54.18048436007996</v>
+        <v>54.28337514740375</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>23.33206510405449</v>
+        <v>23.85214666601782</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>40.80024043463864</v>
+        <v>40.96833433730943</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>39.02619513002423</v>
+        <v>41.023950028356</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.99699812722745</v>
+        <v>15.03160136496536</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.566855001981182</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1079456632384412</v>
+        <v>0.1079456632384409</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>4.957132438124038</v>
@@ -769,7 +769,7 @@
         <v>2.902942899831611</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7633269261678336</v>
+        <v>0.7633269261678339</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3119369613233788</v>
+        <v>-0.3170231696844156</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1536025545091541</v>
+        <v>0.01074990514505467</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.738855836514368</v>
+        <v>-0.7387984554790299</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.2789801400976</v>
+        <v>1.173119007208229</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6018786664207246</v>
+        <v>0.7611245908986224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1580591165003203</v>
+        <v>-0.1494216921615383</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8709885293025911</v>
+        <v>1.045378690612552</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.8204690001016115</v>
+        <v>0.7822032769595164</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1379555329420421</v>
+        <v>-0.1615875810513851</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>7.221159461130457</v>
+        <v>7.997169946287637</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>8.962003068309086</v>
+        <v>10.18637068458665</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.091636502792981</v>
+        <v>3.219952228439458</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>20.33181965106514</v>
+        <v>20.2112641495751</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>18.00793785896816</v>
+        <v>17.62368938480457</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>7.462998117863968</v>
+        <v>8.823257391588184</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>8.221139176267453</v>
+        <v>8.463919994374699</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>8.017474259311337</v>
+        <v>8.516465858150532</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.673519415426552</v>
+        <v>3.455928993998141</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.652929942134187</v>
+        <v>-1.522955415407674</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.63184078116786</v>
+        <v>-15.56531871910721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.171334390468694</v>
+        <v>-7.084959024331703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.677410749815607</v>
+        <v>6.184646751256443</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.622770789387258</v>
+        <v>-3.280536024502819</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.817408464198786</v>
+        <v>8.349828007573189</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.539496426326477</v>
+        <v>6.768898148664147</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.311842752103216</v>
+        <v>-4.308395058430549</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.782840326901958</v>
+        <v>5.439859412574938</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>26.57889064618004</v>
+        <v>26.10736550025775</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.644719799310598</v>
+        <v>3.702600114268574</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.79114387170303</v>
+        <v>15.64451366798134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31.66962330702708</v>
+        <v>31.5367347933575</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>21.97602930344553</v>
+        <v>22.62372837663283</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>27.71704390925226</v>
+        <v>27.51482394001817</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>25.08710661712821</v>
+        <v>25.46626111370889</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.15524834945655</v>
+        <v>12.94312453629339</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.73114547583141</v>
+        <v>20.8598483104064</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.574676424237842</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9998438321078142</v>
+        <v>0.9998438321078139</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.9924796355847783</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.20155304744048</v>
+        <v>-0.2173910689682789</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8181996952002707</v>
+        <v>-0.7879628866468472</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3761958249122648</v>
+        <v>-0.4216776826924113</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2578218511130956</v>
+        <v>0.204837316792187</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1164610367568918</v>
+        <v>-0.1703366684424932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3009805461137618</v>
+        <v>0.3116070180953817</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.278959699470091</v>
+        <v>0.3322518025642789</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2397285318340113</v>
+        <v>-0.2268775062487475</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2299216969835879</v>
+        <v>0.2525504725740462</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.175907523612741</v>
+        <v>3.898945305465625</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6553632636946815</v>
+        <v>0.8903894246506834</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.19574231821487</v>
+        <v>2.463003826099845</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.650775695328688</v>
+        <v>2.635019702185764</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.701693311560694</v>
+        <v>1.743062628953512</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.478862649910456</v>
+        <v>2.223804723247228</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.08344586368676</v>
+        <v>2.167624608063964</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9968203168753841</v>
+        <v>1.176899008784817</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.919085589221366</v>
+        <v>1.769516597116189</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>5.311327595520083</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22.69781121223334</v>
+        <v>22.69781121223333</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>6.514441285587163</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6300251443853655</v>
+        <v>1.19162299476595</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.750878104954964</v>
+        <v>-6.1755427547089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.66243520164224</v>
+        <v>11.66518300645256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.089636510508537</v>
+        <v>-6.820927122497443</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-16.61154146579478</v>
+        <v>-16.56232148734573</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>14.51534574152612</v>
+        <v>15.17677010316465</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.7339354733763515</v>
+        <v>-1.078469527319875</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.127041096380088</v>
+        <v>-9.438884294280186</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.98728971828758</v>
+        <v>14.04840655533044</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.67189351308481</v>
+        <v>28.08103609234612</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.56695786120161</v>
+        <v>15.16967914643522</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33.08975037939993</v>
+        <v>33.48786918464788</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.0098190600764</v>
+        <v>20.11862936294284</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.508249636332323</v>
+        <v>9.343009191620551</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>37.41045842222361</v>
+        <v>38.48909519030003</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.77229047719645</v>
+        <v>18.47329886450436</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.739309900618476</v>
+        <v>8.438376457650993</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>31.77999093305144</v>
+        <v>31.94919543773354</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.696782762249033</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.97768181477015</v>
+        <v>2.977681814770149</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3229118505889546</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2727699672125967</v>
+        <v>-0.1844728810030889</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5157953027676652</v>
+        <v>-0.5475160785424754</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6696916023317729</v>
+        <v>0.6800458579695983</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.301760070538528</v>
+        <v>-0.2712985257455973</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6453899585587394</v>
+        <v>-0.6532600868801349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5236929990465933</v>
+        <v>0.4814404042302446</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05055986564537009</v>
+        <v>-0.09231449089668047</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4662738241996445</v>
+        <v>-0.4647709033458465</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6726182655603071</v>
+        <v>0.5909129732758138</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>8.650234476375223</v>
+        <v>10.41310885849907</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.713661425599915</v>
+        <v>4.695695456935069</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>15.35873187305741</v>
+        <v>15.5369715221627</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.434220658583464</v>
+        <v>1.451430201342683</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8326233603823605</v>
+        <v>0.7423770052067377</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.831573712075654</v>
+        <v>2.872192291216724</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.745644658384767</v>
+        <v>1.706230285326438</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8306283655478403</v>
+        <v>0.7491687773876738</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.104075303107215</v>
+        <v>2.950790030993033</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>12.41581692985994</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.565538161442761</v>
+        <v>7.565538161442756</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.602407685515823</v>
+        <v>1.6831184521356</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.39435304783198</v>
+        <v>5.243694940531304</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.255599994490927</v>
+        <v>3.255078579157428</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.887357453793896</v>
+        <v>-5.337411282234282</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.495334516046322</v>
+        <v>-5.138099745142784</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.288153327943022</v>
+        <v>-6.595753480163526</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9065823475096669</v>
+        <v>1.609933684954238</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.754098943678494</v>
+        <v>2.297783066755732</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.277507687664142</v>
+        <v>-1.105841664262803</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>25.55882352459315</v>
+        <v>25.15645269049782</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>27.40647947956597</v>
+        <v>27.79964571488914</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.62421623389594</v>
+        <v>20.33930805864975</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22.67835921876769</v>
+        <v>23.83519486132344</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>23.95296853713347</v>
+        <v>24.80510778724918</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.02217925673318</v>
+        <v>15.72193947337368</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>20.8623243170254</v>
+        <v>20.80512428083333</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>22.19768256820435</v>
+        <v>23.07528289744943</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>14.85364344195229</v>
+        <v>14.85652359041316</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.7277840906462602</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4434728976901331</v>
+        <v>0.4434728976901328</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.006534091922657049</v>
+        <v>-0.1311640704500787</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1599377936922146</v>
+        <v>0.2689182167502062</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.06608355688838695</v>
+        <v>0.09009081175786844</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1808451840586034</v>
+        <v>-0.190075205086487</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1790201255647307</v>
+        <v>-0.1548106649422642</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2345058564303837</v>
+        <v>-0.1996437591436573</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01993335608366849</v>
+        <v>0.06668269571880753</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09884571974206717</v>
+        <v>0.09318374902311118</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.05486345261560487</v>
+        <v>-0.0623055123916787</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11.75792915357584</v>
+        <v>10.82383921889517</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11.19851851148008</v>
+        <v>13.7080628135932</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9.487947990457462</v>
+        <v>10.4020971245523</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.289568056148116</v>
+        <v>1.465287763172703</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.393496212771051</v>
+        <v>1.387619604177955</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9945529717930478</v>
+        <v>0.9533980178905763</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.687694141270572</v>
+        <v>1.700163860627851</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.832663614736965</v>
+        <v>2.07398836026695</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.210126031389832</v>
+        <v>1.204885751177059</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-13.67691286979522</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.920725175200872</v>
+        <v>4.92072517520086</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>13.90285060487201</v>
@@ -1511,7 +1511,7 @@
         <v>10.54966514489816</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.162075465243813</v>
+        <v>3.162075465243819</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.848370537886557</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-21.65424483763355</v>
+        <v>-23.26047414853407</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-32.44065035432727</v>
+        <v>-31.75598661636172</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.17784399762455</v>
+        <v>-16.23464165996799</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.457688939072876</v>
+        <v>-6.243480927149363</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.029270053821795</v>
+        <v>-9.273344405000033</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-14.07467145107894</v>
+        <v>-14.92893265199035</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.349255973980976</v>
+        <v>-7.577643661655646</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-15.61601139830835</v>
+        <v>-15.97144650140142</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-10.3115024156594</v>
+        <v>-8.561196586236969</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.41129746840499</v>
+        <v>20.96001041220221</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.713101240828384</v>
+        <v>2.221410107161832</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20.16043947270925</v>
+        <v>20.58927513145429</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34.88884939805764</v>
+        <v>32.66202969937125</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>31.10219453510805</v>
+        <v>31.75541800385335</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>18.01139966072405</v>
+        <v>19.0303702126976</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>22.67022900254744</v>
+        <v>23.34866232517033</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.92884913745129</v>
+        <v>12.99900153272184</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.28839416152529</v>
+        <v>16.11129397294868</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.5829413551670704</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2097325784951984</v>
+        <v>0.209732578495198</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4459994007967893</v>
@@ -1616,7 +1616,7 @@
         <v>0.3384301872295539</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1014384605613729</v>
+        <v>0.1014384605613731</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2806302716567735</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6803869094102786</v>
+        <v>-0.7027345786136778</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8778748283477936</v>
+        <v>-0.8916297825854643</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4232442168275833</v>
+        <v>-0.4302447429600084</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1611349268458799</v>
+        <v>-0.1661756950170207</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2188917758829882</v>
+        <v>-0.2555409117063655</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3304109305547036</v>
+        <v>-0.3430380199539347</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1946621349558492</v>
+        <v>-0.2030459475960036</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4265500794334716</v>
+        <v>-0.4356469312904326</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2647763525775894</v>
+        <v>-0.2289397916672858</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.67907704977612</v>
+        <v>1.744213966166111</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3672519202578036</v>
+        <v>0.3847432936905936</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.533435836735367</v>
+        <v>1.665848245849875</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.845107011542438</v>
+        <v>1.577294763749462</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.456198250209147</v>
+        <v>1.611760518385844</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8703956506521475</v>
+        <v>0.9595091534264659</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.092735424840231</v>
+        <v>1.211787248344136</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6743723139430122</v>
+        <v>0.6665338892440235</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8044376135276915</v>
+        <v>0.8561806442333062</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>13.95870928262861</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>22.51560498333379</v>
+        <v>22.51560498333378</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>8.718162645630187</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.769632825157534</v>
+        <v>-1.652711946703709</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.20136777392008</v>
+        <v>-2.172360836183841</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>9.801869624117256</v>
+        <v>8.376536680021619</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.137922282905485</v>
+        <v>-6.171516483135894</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.3491391113001575</v>
+        <v>1.44234414158238</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>17.39540529161843</v>
+        <v>18.02890461544721</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.16030743584226</v>
+        <v>0.2660904999638688</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.860458623154187</v>
+        <v>4.432392395688915</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>17.03514304983804</v>
+        <v>17.04211890131676</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>28.66602458801146</v>
+        <v>26.91940087578803</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>30.06423711738271</v>
+        <v>28.82825756723279</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>34.12531582735138</v>
+        <v>34.63884364204392</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25.02627579725165</v>
+        <v>23.35756714924155</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>33.89002949657159</v>
+        <v>35.62822622615367</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>42.4040568555946</v>
+        <v>42.32746825966984</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>20.55848398012664</v>
+        <v>21.12991328251918</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>27.67702588060815</v>
+        <v>27.05649299397711</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>34.73954920240351</v>
+        <v>34.06005268357018</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>1.006744759606198</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>1.623894220258874</v>
+        <v>1.623894220258873</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.4349227672427976</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1702801196442183</v>
+        <v>-0.2141518321052165</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1310647954749797</v>
+        <v>-0.1947273268143978</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.3319702146736925</v>
+        <v>0.2869650685897432</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2257383163214992</v>
+        <v>-0.2405792206835247</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.03290521074997103</v>
+        <v>0.03313421124153752</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5512001199371426</v>
+        <v>0.579552883426068</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.05112938330320679</v>
+        <v>0.007869137665736485</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2033427637663578</v>
+        <v>0.1694211087850145</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.6847775286081605</v>
+        <v>0.6888625495033404</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>4.09465058679253</v>
+        <v>3.929351181988975</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>4.234390842766809</v>
+        <v>3.890433654469734</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5.401568208049425</v>
+        <v>5.32485530809217</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.098285230060747</v>
+        <v>1.919600353145895</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.609828996659006</v>
+        <v>2.830273091020261</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.513745298129362</v>
+        <v>3.625870318076111</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.550641608050349</v>
+        <v>1.724859291036933</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2.216920848564908</v>
+        <v>2.080645715487824</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.969130747829435</v>
+        <v>2.850033017061354</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>26.54033590907536</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>31.75135829554734</v>
+        <v>31.75135829554733</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>13.05569951843804</v>
@@ -1948,7 +1948,7 @@
         <v>21.23263900024869</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>23.8467471935308</v>
+        <v>23.84674719353078</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.083905183629573</v>
+        <v>1.880248151249515</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.810922258343617</v>
+        <v>5.104229104841912</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.869721119099211</v>
+        <v>6.323187835540407</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.406668560407477</v>
+        <v>5.322330666151032</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>15.56145611620771</v>
+        <v>16.09221036059889</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>21.10262903644239</v>
+        <v>22.90493284612717</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.863162330757262</v>
+        <v>6.399334245393088</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>13.9726617888864</v>
+        <v>13.9572183514804</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>17.82523537149031</v>
+        <v>17.47686638559968</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>20.68537846377361</v>
+        <v>20.82157496058946</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>23.31603209330022</v>
+        <v>23.02176298334708</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>23.60928536304035</v>
+        <v>24.13565556411434</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>25.25744644646646</v>
+        <v>24.83225060817176</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>36.49973359067047</v>
+        <v>36.9681249316878</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>39.64054389069357</v>
+        <v>39.93547688679901</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>19.54538125655067</v>
+        <v>19.66164756800861</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>29.33141309831997</v>
+        <v>28.13300882157914</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>30.06993109092823</v>
+        <v>29.64941037103358</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>2.074946725285793</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>2.33040885767216</v>
+        <v>2.330408857672159</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.01843548820436957</v>
+        <v>0.02726048366049369</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2125352540989171</v>
+        <v>0.2963350029663842</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3714976703544043</v>
+        <v>0.3237336752195468</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.223159755742156</v>
+        <v>0.2375723736423953</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.893329147508057</v>
+        <v>0.8742393065004639</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.173470258923622</v>
+        <v>1.263593687585678</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4096852273972815</v>
+        <v>0.4510493557600876</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>1.007426686583779</v>
+        <v>0.984836857321805</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.294451934506673</v>
+        <v>1.288053299399141</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>4.242911197498718</v>
+        <v>3.852043821920576</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>5.256476842489554</v>
+        <v>5.002547381681415</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>4.890432597804997</v>
+        <v>4.94907623758625</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3.064238313583485</v>
+        <v>3.098802097233595</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>4.901086051415807</v>
+        <v>4.885568769869983</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>5.127879320380554</v>
+        <v>4.984283825616293</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>2.556538962406295</v>
+        <v>2.586037115311254</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>3.988942077762561</v>
+        <v>3.63271683421278</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>4.539781677638672</v>
+        <v>4.166455421554595</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-8.903221299033298</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-7.951361065608342</v>
+        <v>-7.951361065608345</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-2.630876115377595</v>
@@ -2162,7 +2162,7 @@
         <v>-7.061713555183921</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.225173744402502</v>
+        <v>1.225173744402508</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-22.44147607823393</v>
+        <v>-22.65080297090694</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-18.34466561340977</v>
+        <v>-19.18010662811335</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-16.72705824240839</v>
+        <v>-17.31076241283403</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-13.18317167581477</v>
+        <v>-12.18646691960829</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-14.87575159580976</v>
+        <v>-14.72013444036912</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.332138257654332</v>
+        <v>-0.737469233395209</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-14.4907244206622</v>
+        <v>-14.20299925369446</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-14.08724478024407</v>
+        <v>-14.25160005771093</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-5.144463324839139</v>
+        <v>-5.135836175683901</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-2.895154070480328</v>
+        <v>-3.097379874369659</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.3696608014616884</v>
+        <v>0.7926179813285534</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.5001457377121435</v>
+        <v>1.89629435283038</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.265104169473396</v>
+        <v>7.683294803984253</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.130328854902062</v>
+        <v>4.624872972080454</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>16.84505786808856</v>
+        <v>17.49565646564282</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.1998267292918015</v>
+        <v>-0.2085517427872747</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.01115960348889059</v>
+        <v>-0.4659470595372523</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>8.484723622922909</v>
+        <v>7.684077673933032</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.381022118757787</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.3402863231710551</v>
+        <v>-0.3402863231710552</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.1006486074400054</v>
@@ -2267,7 +2267,7 @@
         <v>-0.2828184216162185</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.04906765219090275</v>
+        <v>0.04906765219090297</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7774981355454549</v>
+        <v>-0.7944779912826142</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6419041469842079</v>
+        <v>-0.649585279195153</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5767778071972957</v>
+        <v>-0.5932563589006421</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4255979264621114</v>
+        <v>-0.3987865206700872</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4777010187737235</v>
+        <v>-0.4867956626100648</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.06276335377556713</v>
+        <v>-0.0227668022653018</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5071935958312543</v>
+        <v>-0.5028656653644746</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4905957088827047</v>
+        <v>-0.4886323231245643</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.172513427638476</v>
+        <v>-0.1775518126751123</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.0728105518460974</v>
+        <v>-0.1096939989199509</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.05726021964500381</v>
+        <v>0.0504252057761135</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.03628009665771263</v>
+        <v>0.126037352842418</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3644791890090493</v>
+        <v>0.3624193602154279</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2903109752775751</v>
+        <v>0.2519721643359506</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8491247214178607</v>
+        <v>0.8747328682010471</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.00613205899386862</v>
+        <v>-0.003285430582568763</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.02239057064387018</v>
+        <v>-0.009982153656662416</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4206688404114431</v>
+        <v>0.3842944989955193</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>3.68036387952694</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>7.841305797771081</v>
+        <v>7.841305797771084</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>11.17296192319533</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.7830134942242127</v>
+        <v>0.9987173779759291</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.27056138731972</v>
+        <v>-0.03215705722644215</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>3.990592052468658</v>
+        <v>4.562681753998998</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>5.945165780690931</v>
+        <v>6.156619409925795</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>6.042037834024744</v>
+        <v>5.948478486901065</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>12.87245882916342</v>
+        <v>12.70989525341957</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>5.333482331516797</v>
+        <v>5.413180207555103</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>4.302068449889554</v>
+        <v>4.214100924989685</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>10.14248731729068</v>
+        <v>9.892988631517206</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>9.905708556410572</v>
+        <v>10.15321796277393</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>7.62076926627187</v>
+        <v>8.222722084513158</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>11.62397506676048</v>
+        <v>11.79821036432097</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>15.57236165504167</v>
+        <v>15.8573687944285</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>14.97125520744261</v>
+        <v>15.39763873040497</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>20.79632871934162</v>
+        <v>20.87099147776537</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>12.15606228649942</v>
+        <v>12.12477828987951</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>10.74453575864767</v>
+        <v>10.85886610591968</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>15.52668465307094</v>
+        <v>15.74330392855013</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.2759503010558179</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.5879339017542439</v>
+        <v>0.5879339017542441</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.5483793470989101</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.05492493365374707</v>
+        <v>0.06606523762516914</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.01663588808842163</v>
+        <v>-0.005044832920556646</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2388692481123941</v>
+        <v>0.2943213623860949</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2583681286383998</v>
+        <v>0.2639587910503011</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.2584462259488223</v>
+        <v>0.2559769805698113</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5484937078194266</v>
+        <v>0.5359799544452397</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2718726911341691</v>
+        <v>0.2730637479085937</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2325510986382802</v>
+        <v>0.2254978815584185</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.5251486391831813</v>
+        <v>0.5077149405357707</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.9111013992348731</v>
+        <v>0.9043633181933244</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.6882560008946483</v>
+        <v>0.7227432746973735</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.054181202496527</v>
+        <v>1.099511540831124</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.8485309928939203</v>
+        <v>0.8985549249959981</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.8197262556049026</v>
+        <v>0.8576946714902771</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.158687452468895</v>
+        <v>1.190755292332053</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.7464470352616054</v>
+        <v>0.763937044866169</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.6857630693047087</v>
+        <v>0.6869637581996216</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.018628621450202</v>
+        <v>1.023186278713111</v>
       </c>
     </row>
     <row r="58">
